--- a/Issues-Report_Group5.xlsx
+++ b/Issues-Report_Group5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Euro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\app code\desktop-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795050FD-9656-4E4A-B1B8-DE3C9EA11506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F596D93-21F3-44B5-BB99-0BD542F25617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>Display update succesfully to the screen</t>
+  </si>
+  <si>
+    <t>Conflict main with branch "baspdd"</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>ite2</t>
+  </si>
+  <si>
+    <t>Conflict  searching and updating</t>
+  </si>
+  <si>
+    <t>after searching admin can not update the user again</t>
+  </si>
+  <si>
+    <t>UserManagement</t>
   </si>
 </sst>
 </file>
@@ -584,7 +602,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:K43"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -700,16 +718,32 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7">
+        <v>44823</v>
+      </c>
+      <c r="H3" s="7">
+        <v>44823</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -727,18 +761,38 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
+    <row r="4" spans="1:26" ht="55.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
       <c r="D4" s="12"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="10"/>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7">
+        <v>44828</v>
+      </c>
+      <c r="H4" s="7">
+        <v>44830</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
